--- a/прерывания.xlsx
+++ b/прерывания.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
   <si>
     <t>OnEditingChanged</t>
   </si>
@@ -46,16 +46,28 @@
   </si>
   <si>
     <t>ввод данных</t>
+  </si>
+  <si>
+    <t>http://delphimaster.net/view/3-1118761254/0-40</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -79,16 +91,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -391,30 +406,33 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="22.85546875" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" customWidth="1"/>
+    <col min="3" max="3" width="37.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -422,27 +440,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -450,7 +468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -458,7 +476,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
@@ -466,7 +484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4</v>
       </c>
@@ -474,12 +492,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>0</v>
       </c>
@@ -535,6 +553,9 @@
   <mergeCells count="1">
     <mergeCell ref="C20:C21"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
